--- a/Data/Y70-stu.xlsx
+++ b/Data/Y70-stu.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Doc\Ofc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3911513C-B57E-448E-9C2A-F609814981AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDF8CC9-FF79-4462-BFC6-936CE2D7E3DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{ADE2F755-DC4E-47CC-8C2D-EEE2F307AB19}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Y70" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -232,18 +232,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -591,13 +591,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9EBE9D-927B-4046-9CB0-7FDCB461271A}">
   <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -608,7 +608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -619,7 +619,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -630,7 +630,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -641,7 +641,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -652,7 +652,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -663,7 +663,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -674,7 +674,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -685,7 +685,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -696,7 +696,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -707,7 +707,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -718,7 +718,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -729,7 +729,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -740,7 +740,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -751,7 +751,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -762,7 +762,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -773,7 +773,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -784,7 +784,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -795,7 +795,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -806,7 +806,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -817,7 +817,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -828,7 +828,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -839,7 +839,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -850,7 +850,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -861,7 +861,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>4</v>
       </c>
@@ -872,7 +872,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>4</v>
       </c>
@@ -883,7 +883,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -894,7 +894,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -905,7 +905,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -916,7 +916,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>4</v>
       </c>
@@ -927,7 +927,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -938,7 +938,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -949,7 +949,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -960,7 +960,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -971,7 +971,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -982,7 +982,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>5</v>
       </c>
@@ -993,7 +993,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>5</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>5</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>5</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>5</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>5</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>5</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>5</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>6</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>6</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>6</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>6</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>6</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>6</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>6</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>6</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>7</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>7</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>7</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>7</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>8</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>8</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>8</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>8</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>9</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>9</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>9</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>9</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>10</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>10</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>10</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>11</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>11</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>11</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>11</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>12</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>12</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>12</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>13</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>13</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>13</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>13</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>14</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>14</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>15</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>15</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>16</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>16</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>16</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>17</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>17</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>17</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>18</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>18</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>18</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>19</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>19</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>19</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>20</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>20</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>21</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>21</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>22</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3">
       <c r="A102">
         <v>22</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3">
       <c r="A103">
         <v>23</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3">
       <c r="A104">
         <v>23</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3">
       <c r="A105">
         <v>24</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3">
       <c r="A106">
         <v>24</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3">
       <c r="A107">
         <v>25</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3">
       <c r="A108">
         <v>25</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3">
       <c r="A109">
         <v>26</v>
       </c>
